--- a/placeholder_name/excel_test_file_output.xlsx
+++ b/placeholder_name/excel_test_file_output.xlsx
@@ -415,10 +415,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -446,12 +446,12 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Odl. </t>
+          <t>Distance</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Azymut </t>
+          <t>Azimuth</t>
         </is>
       </c>
     </row>
@@ -617,502 +617,482 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="B10" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>63</v>
       </c>
       <c r="E10" t="n">
-        <v>62.97</v>
+        <v>74.28</v>
       </c>
       <c r="F10" t="n">
-        <v>46.930587</v>
+        <v>133.363423</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="B11" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>64</v>
       </c>
       <c r="E11" t="n">
-        <v>60.31</v>
+        <v>71.59</v>
       </c>
       <c r="F11" t="n">
-        <v>49.707852</v>
+        <v>131.035345</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="B12" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>65</v>
       </c>
       <c r="E12" t="n">
-        <v>57.8</v>
+        <v>69.03</v>
       </c>
       <c r="F12" t="n">
-        <v>52.733598</v>
+        <v>128.53018</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="B13" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="D13" t="n">
         <v>66</v>
       </c>
       <c r="E13" t="n">
-        <v>55.47</v>
+        <v>66.61</v>
       </c>
       <c r="F13" t="n">
-        <v>56.023456</v>
+        <v>125.837653</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="B14" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="D14" t="n">
         <v>67</v>
       </c>
       <c r="E14" t="n">
-        <v>53.34</v>
+        <v>64.34999999999999</v>
       </c>
       <c r="F14" t="n">
-        <v>59.588919</v>
+        <v>122.949215</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="B15" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="D15" t="n">
         <v>68</v>
       </c>
       <c r="E15" t="n">
-        <v>51.43</v>
+        <v>62.27</v>
       </c>
       <c r="F15" t="n">
-        <v>63.434949</v>
+        <v>119.859016</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="B16" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D16" t="n">
         <v>69</v>
       </c>
       <c r="E16" t="n">
-        <v>49.77</v>
+        <v>60.37</v>
       </c>
       <c r="F16" t="n">
-        <v>67.557247</v>
+        <v>116.565051</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B17" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D17" t="n">
         <v>70</v>
       </c>
       <c r="E17" t="n">
-        <v>48.38</v>
+        <v>58.69</v>
       </c>
       <c r="F17" t="n">
-        <v>71.939528</v>
+        <v>113.070412</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="B18" t="n">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="C18" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
-        <v>71</v>
+        <v>9</v>
       </c>
       <c r="E18" t="n">
-        <v>47.3</v>
+        <v>80.28</v>
       </c>
       <c r="F18" t="n">
-        <v>76.551385</v>
+        <v>230.559947</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="B19" t="n">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="C19" t="n">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>46.53</v>
+        <v>77.8</v>
       </c>
       <c r="F19" t="n">
-        <v>81.347458</v>
+        <v>232.835525</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="B20" t="n">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="C20" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="E20" t="n">
-        <v>46.1</v>
+        <v>75.45</v>
       </c>
       <c r="F20" t="n">
-        <v>86.268603</v>
+        <v>235.25682</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="B21" t="n">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="C21" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D21" t="n">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="E21" t="n">
-        <v>46.01</v>
+        <v>73.25</v>
       </c>
       <c r="F21" t="n">
-        <v>91.245364</v>
+        <v>237.828783</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="B22" t="n">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="C22" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D22" t="n">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="E22" t="n">
-        <v>46.27</v>
+        <v>71.2</v>
       </c>
       <c r="F22" t="n">
-        <v>96.20344799999999</v>
+        <v>240.554571</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="B23" t="n">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="C23" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D23" t="n">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="E23" t="n">
-        <v>46.87</v>
+        <v>69.31999999999999</v>
       </c>
       <c r="F23" t="n">
-        <v>101.070203</v>
+        <v>243.434949</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B24" t="n">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="C24" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D24" t="n">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="E24" t="n">
-        <v>47.8</v>
+        <v>67.62</v>
       </c>
       <c r="F24" t="n">
-        <v>105.780753</v>
+        <v>246.467651</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="C25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="n">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="E25" t="n">
-        <v>49.04</v>
+        <v>66.13</v>
       </c>
       <c r="F25" t="n">
-        <v>110.282559</v>
+        <v>249.646771</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="B26" t="n">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="C26" t="n">
-        <v>6</v>
+        <v>78</v>
       </c>
       <c r="D26" t="n">
-        <v>79</v>
+        <v>9</v>
       </c>
       <c r="E26" t="n">
-        <v>50.57</v>
+        <v>97.31</v>
       </c>
       <c r="F26" t="n">
-        <v>114.537728</v>
+        <v>320.420595</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B27" t="n">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="D27" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="E27" t="n">
-        <v>52.35</v>
+        <v>94.26000000000001</v>
       </c>
       <c r="F27" t="n">
-        <v>118.523119</v>
+        <v>318.871256</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="B28" t="n">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="D28" t="n">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="E28" t="n">
-        <v>54.38</v>
+        <v>91.29000000000001</v>
       </c>
       <c r="F28" t="n">
-        <v>122.228757</v>
+        <v>317.219656</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="B29" t="n">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="C29" t="n">
-        <v>-3</v>
+        <v>69</v>
       </c>
       <c r="D29" t="n">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="E29" t="n">
-        <v>56.61</v>
+        <v>88.39</v>
       </c>
       <c r="F29" t="n">
-        <v>125.655328</v>
+        <v>315.458356</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="B30" t="n">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="C30" t="n">
-        <v>-6</v>
+        <v>66</v>
       </c>
       <c r="D30" t="n">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="E30" t="n">
-        <v>59.03</v>
+        <v>85.59</v>
       </c>
       <c r="F30" t="n">
-        <v>128.811384</v>
+        <v>313.579734</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="B31" t="n">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="C31" t="n">
-        <v>-9</v>
+        <v>63</v>
       </c>
       <c r="D31" t="n">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="E31" t="n">
-        <v>61.62</v>
+        <v>82.88</v>
       </c>
       <c r="F31" t="n">
-        <v>131.710757</v>
+        <v>311.576129</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="B32" t="n">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="C32" t="n">
-        <v>-12</v>
+        <v>60</v>
       </c>
       <c r="D32" t="n">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="E32" t="n">
-        <v>64.34999999999999</v>
+        <v>80.28</v>
       </c>
       <c r="F32" t="n">
-        <v>134.370401</v>
+        <v>309.440053</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="B33" t="n">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="C33" t="n">
-        <v>-15</v>
+        <v>57</v>
       </c>
       <c r="D33" t="n">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="E33" t="n">
-        <v>67.20999999999999</v>
+        <v>77.8</v>
       </c>
       <c r="F33" t="n">
-        <v>136.808739</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>35</v>
-      </c>
-      <c r="B34" t="n">
-        <v>41</v>
-      </c>
-      <c r="C34" t="n">
-        <v>-18</v>
-      </c>
-      <c r="D34" t="n">
-        <v>87</v>
-      </c>
-      <c r="E34" t="n">
-        <v>70.18000000000001</v>
-      </c>
-      <c r="F34" t="n">
-        <v>139.044486</v>
+        <v>307.164475</v>
       </c>
     </row>
   </sheetData>
